--- a/PotencialGHI.xlsx
+++ b/PotencialGHI.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.321255094161959</v>
+        <v>-1.679912059577777</v>
       </c>
       <c r="D2">
-        <v>-1.277431064030132</v>
+        <v>-1.605750333083334</v>
       </c>
       <c r="E2">
-        <v>-1.365215263653484</v>
+        <v>-1.755481970741112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-1.236640555555555</v>
+        <v>-1.717711065858333</v>
       </c>
       <c r="D3">
-        <v>-1.189987777777778</v>
+        <v>-1.645856211950556</v>
       </c>
       <c r="E3">
-        <v>-1.282608888888889</v>
+        <v>-1.791340447471666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-1.296994444444444</v>
+        <v>-1.615989842591111</v>
       </c>
       <c r="D4">
-        <v>-1.254072222222222</v>
+        <v>-1.544334012773334</v>
       </c>
       <c r="E4">
-        <v>-1.340198333333333</v>
+        <v>-1.688480942677223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-1.20338</v>
+        <v>-1.443727713333333</v>
       </c>
       <c r="D5">
-        <v>-1.161331111111111</v>
+        <v>-1.373024215946667</v>
       </c>
       <c r="E5">
-        <v>-1.245447777777778</v>
+        <v>-1.515546840727778</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-1.200220555555556</v>
+        <v>-1.427844334916667</v>
       </c>
       <c r="D6">
-        <v>-1.158859444444444</v>
+        <v>-1.357297208922222</v>
       </c>
       <c r="E6">
-        <v>-1.241693888888889</v>
+        <v>-1.498739946111111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-0.8840000000000002</v>
+        <v>4.494811926450777</v>
       </c>
       <c r="D7">
-        <v>-0.8309005555555556</v>
+        <v>4.781456504563382</v>
       </c>
       <c r="E7">
-        <v>-0.9362033333333335</v>
+        <v>4.210918453054142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -523,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>34.36070812260537</v>
+        <v>91.8926086766959</v>
       </c>
       <c r="D8">
-        <v>35.21029266283525</v>
+        <v>94.39240474090641</v>
       </c>
       <c r="E8">
-        <v>33.39889695402299</v>
+        <v>89.46045700508775</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>185.1933009577515</v>
+        <v>280.1772159777778</v>
       </c>
       <c r="D9">
-        <v>187.4247321070534</v>
+        <v>288.9193112555556</v>
       </c>
       <c r="E9">
-        <v>182.6668990780523</v>
+        <v>271.5854576777778</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>384.1082222222221</v>
+        <v>484.0235650555554</v>
       </c>
       <c r="D10">
-        <v>388.9973388888889</v>
+        <v>501.4456003333335</v>
       </c>
       <c r="E10">
-        <v>379.0222</v>
+        <v>465.5267982777777</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>574.8069500000001</v>
+        <v>637.8873371666667</v>
       </c>
       <c r="D11">
-        <v>580.4497388888888</v>
+        <v>686.2680685555555</v>
       </c>
       <c r="E11">
-        <v>569.6308111111113</v>
+        <v>589.7405263888888</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>718.1157745210728</v>
+        <v>675.9063209999998</v>
       </c>
       <c r="D12">
-        <v>725.7861549808429</v>
+        <v>740.4093317222221</v>
       </c>
       <c r="E12">
-        <v>709.9993444444444</v>
+        <v>613.5024250555555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>807.0085634099617</v>
+        <v>711.2635512222223</v>
       </c>
       <c r="D13">
-        <v>815.0927461685823</v>
+        <v>778.8248006111111</v>
       </c>
       <c r="E13">
-        <v>798.3585379310344</v>
+        <v>646.591399888889</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -625,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>805.8487555555554</v>
+        <v>658.2639892222222</v>
       </c>
       <c r="D14">
-        <v>820.4101944444444</v>
+        <v>730.0398836111112</v>
       </c>
       <c r="E14">
-        <v>791.5317055555554</v>
+        <v>591.723551611111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>749.8257833333334</v>
+        <v>539.8644921111111</v>
       </c>
       <c r="D15">
-        <v>759.9988833333333</v>
+        <v>593.4366659999998</v>
       </c>
       <c r="E15">
-        <v>739.0000166666669</v>
+        <v>490.7443245000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -659,13 +659,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>616.2576666666665</v>
+        <v>419.10306585</v>
       </c>
       <c r="D16">
-        <v>626.5256166666667</v>
+        <v>456.7611930777777</v>
       </c>
       <c r="E16">
-        <v>604.75735</v>
+        <v>380.8806852166666</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,13 +676,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>423.7663333333333</v>
+        <v>263.5211079722222</v>
       </c>
       <c r="D17">
-        <v>432.7954444444443</v>
+        <v>279.29614675</v>
       </c>
       <c r="E17">
-        <v>414.3287777777778</v>
+        <v>248.3980886611111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>228.7158833333333</v>
+        <v>109.366089256705</v>
       </c>
       <c r="D18">
-        <v>231.8667888888889</v>
+        <v>112.700543459387</v>
       </c>
       <c r="E18">
-        <v>225.4687333333333</v>
+        <v>106.1000187823755</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>54.09705555555555</v>
+        <v>7.703256779673977</v>
       </c>
       <c r="D19">
-        <v>55.21624722222222</v>
+        <v>8.101756735244534</v>
       </c>
       <c r="E19">
-        <v>52.97287444444444</v>
+        <v>7.312116538654434</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,13 +727,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-2.020372159309325</v>
+        <v>-1.550396726470578</v>
       </c>
       <c r="D20">
-        <v>-1.916193497542639</v>
+        <v>-1.475201497723595</v>
       </c>
       <c r="E20">
-        <v>-2.12180963357196</v>
+        <v>-1.627082293957244</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-2.443402670787247</v>
+        <v>-1.525237003781667</v>
       </c>
       <c r="D21">
-        <v>-2.400932342586569</v>
+        <v>-1.456726594512778</v>
       </c>
       <c r="E21">
-        <v>-2.485294942167281</v>
+        <v>-1.594456077236667</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -761,13 +761,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-1.92168</v>
+        <v>-1.602348647794444</v>
       </c>
       <c r="D22">
-        <v>-1.879412777777778</v>
+        <v>-1.534909893689444</v>
       </c>
       <c r="E22">
-        <v>-1.965029444444444</v>
+        <v>-1.671020222405556</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -778,13 +778,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-1.547395555555556</v>
+        <v>-1.694351532715555</v>
       </c>
       <c r="D23">
-        <v>-1.499292777777778</v>
+        <v>-1.625409425104444</v>
       </c>
       <c r="E23">
-        <v>-1.595610555555556</v>
+        <v>-1.764850729738889</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -795,13 +795,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>-1.343276666666667</v>
+        <v>-1.594296441322222</v>
       </c>
       <c r="D24">
-        <v>-1.295623888888889</v>
+        <v>-1.525578455937778</v>
       </c>
       <c r="E24">
-        <v>-1.390660555555556</v>
+        <v>-1.664938692444444</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-1.244427222222222</v>
+        <v>-1.545474154222222</v>
       </c>
       <c r="D25">
-        <v>-1.198746111111111</v>
+        <v>-1.477769312166667</v>
       </c>
       <c r="E25">
-        <v>-1.290573888888889</v>
+        <v>-1.614207836333334</v>
       </c>
     </row>
   </sheetData>
